--- a/project/excel/attributes_of_biosamples.xlsx
+++ b/project/excel/attributes_of_biosamples.xlsx
@@ -4,11 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Biosample" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Biosample1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BiosampleCollection" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Biosample1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BiosampleCollection1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +453,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>biosamples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>depth</t>
         </is>
       </c>
@@ -458,4 +486,30 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>biosamples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/project/excel/attributes_of_biosamples.xlsx
+++ b/project/excel/attributes_of_biosamples.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +426,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>depth</t>
         </is>
@@ -468,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +483,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>depth</t>
         </is>

--- a/project/excel/attributes_of_biosamples.xlsx
+++ b/project/excel/attributes_of_biosamples.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,16 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>depth</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>intval</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sometimes_absent</t>
         </is>
       </c>
     </row>
@@ -473,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +500,16 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>depth</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>intval</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sometimes_absent</t>
         </is>
       </c>
     </row>

--- a/project/excel/attributes_of_biosamples.xlsx
+++ b/project/excel/attributes_of_biosamples.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,11 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>sometimes_absent</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>lat</t>
         </is>
       </c>
     </row>
@@ -483,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +515,11 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>sometimes_absent</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>lat</t>
         </is>
       </c>
     </row>

--- a/project/excel/attributes_of_biosamples.xlsx
+++ b/project/excel/attributes_of_biosamples.xlsx
@@ -4,13 +4,15 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Biosample" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BiosampleCollection" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Biosample1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BiosampleCollection1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Collection" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Meeting" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Biosample1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Collection1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Meeting1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +478,11 @@
           <t>biosamples</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>meetings</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -483,6 +490,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>meeting_info</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"east,north,south,west"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"east,north,south,west"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -528,13 +574,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +594,42 @@
           <t>biosamples</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>meetings</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>meeting_info</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
